--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\permi\source\repos\university\da\2_dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724A26C4-6938-4A37-9EF1-F313EAFFBB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7655D18-D594-47EC-9A19-214A8F60F444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1FD290DD-753F-4FFC-B3B8-1A81E5A9B584}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Count</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>AVL</t>
+  </si>
+  <si>
+    <t>std::map</t>
+  </si>
+  <si>
+    <t>Log</t>
   </si>
 </sst>
 </file>
@@ -82,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,209 +411,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC9C09B-A8F8-4ECB-B64C-4A2D0BC21FD8}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.64</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>350.07459999999998</v>
+      </c>
+      <c r="D3">
+        <v>350.07799999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>367.46210000000002</v>
+      </c>
+      <c r="D4">
+        <v>361.44299999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13.28</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
+        <v>399.61529999999999</v>
+      </c>
+      <c r="D5">
+        <v>371.14299999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16.61</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>427.21420000000001</v>
+      </c>
+      <c r="D6">
+        <v>375.721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>19.93</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7">
+        <v>439.01749999999998</v>
+      </c>
+      <c r="D7">
+        <v>382.76900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7.64</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>515.20500000000004</v>
+      </c>
+      <c r="D11">
+        <v>441.03800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>536.42970000000003</v>
+      </c>
+      <c r="D12">
+        <v>446.80500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13.28</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>583.40120000000002</v>
+      </c>
+      <c r="D13">
+        <v>452.19600000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16.61</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
+        <v>665.69370000000004</v>
+      </c>
+      <c r="D14">
+        <v>466.98399999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19.93</v>
+      </c>
+      <c r="B15">
+        <v>1000000</v>
+      </c>
+      <c r="C15">
+        <v>774.86630000000002</v>
+      </c>
+      <c r="D15">
+        <v>469.48200000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7.64</v>
+      </c>
+      <c r="B19">
         <v>200</v>
       </c>
-      <c r="B4">
-        <v>350.07459999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C19">
+        <v>487.98200000000003</v>
+      </c>
+      <c r="D19">
+        <v>466.01100000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="B20">
         <v>1000</v>
       </c>
-      <c r="B5">
-        <v>367.46210000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C20">
+        <v>506.09039999999999</v>
+      </c>
+      <c r="D20">
+        <v>462.21800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13.28</v>
+      </c>
+      <c r="B21">
         <v>10000</v>
       </c>
-      <c r="B6">
-        <v>399.61529999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C21">
+        <v>597.72820000000002</v>
+      </c>
+      <c r="D21">
+        <v>483.45400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16.61</v>
+      </c>
+      <c r="B22">
         <v>100000</v>
       </c>
-      <c r="B7">
-        <v>427.21420000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C22">
+        <v>690.43320000000006</v>
+      </c>
+      <c r="D22">
+        <v>487.25900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19.93</v>
+      </c>
+      <c r="B23">
         <v>1000000</v>
       </c>
-      <c r="B8">
-        <v>439.01749999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>200</v>
-      </c>
-      <c r="B13">
-        <v>515.20500000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1000</v>
-      </c>
-      <c r="B14">
-        <v>536.42970000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10000</v>
-      </c>
-      <c r="B15">
-        <v>583.40120000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>100000</v>
-      </c>
-      <c r="B16">
-        <v>665.69370000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1000000</v>
-      </c>
-      <c r="B17">
-        <v>774.86630000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="B22">
-        <v>467.98200000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1000</v>
-      </c>
-      <c r="B23">
-        <v>506.09039999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10000</v>
-      </c>
-      <c r="B24">
-        <v>597.72820000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>100000</v>
-      </c>
-      <c r="B25">
-        <v>690.43320000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1000000</v>
-      </c>
-      <c r="B26">
+      <c r="C23">
         <v>822.83370000000002</v>
       </c>
+      <c r="D23">
+        <v>491.43200000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\permi\source\repos\university\da\2_dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7655D18-D594-47EC-9A19-214A8F60F444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646B542-CDA9-499E-A315-F96FCAEA780F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1FD290DD-753F-4FFC-B3B8-1A81E5A9B584}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{1FD290DD-753F-4FFC-B3B8-1A81E5A9B584}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>350.07459999999998</v>
+        <v>16.847999999999999</v>
       </c>
       <c r="D3">
-        <v>350.07799999999997</v>
+        <v>159.078</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>367.46210000000002</v>
+        <v>18.535</v>
       </c>
       <c r="D4">
-        <v>361.44299999999998</v>
+        <v>186.143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>399.61529999999999</v>
+        <v>25.616</v>
       </c>
       <c r="D5">
-        <v>371.14299999999997</v>
+        <v>247.488</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>100000</v>
       </c>
       <c r="C6">
-        <v>427.21420000000001</v>
+        <v>43.213999999999999</v>
       </c>
       <c r="D6">
-        <v>375.721</v>
+        <v>326.721</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
         <v>1000000</v>
       </c>
       <c r="C7">
-        <v>439.01749999999998</v>
+        <v>71.015000000000001</v>
       </c>
       <c r="D7">
-        <v>382.76900000000001</v>
+        <v>376.96899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,10 +554,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>515.20500000000004</v>
+        <v>126.142</v>
       </c>
       <c r="D11">
-        <v>441.03800000000001</v>
+        <v>160.54499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +568,10 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>536.42970000000003</v>
+        <v>165.85900000000001</v>
       </c>
       <c r="D12">
-        <v>446.80500000000001</v>
+        <v>198.40299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,10 +582,10 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>583.40120000000002</v>
+        <v>264.42599999999999</v>
       </c>
       <c r="D13">
-        <v>452.19600000000003</v>
+        <v>273.97300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>100000</v>
       </c>
       <c r="C14">
-        <v>665.69370000000004</v>
+        <v>370.57</v>
       </c>
       <c r="D14">
-        <v>466.98399999999998</v>
+        <v>345.28899999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>1000000</v>
       </c>
       <c r="C15">
-        <v>774.86630000000002</v>
+        <v>439.923</v>
       </c>
       <c r="D15">
-        <v>469.48200000000003</v>
+        <v>419.65300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>200</v>
       </c>
       <c r="C19">
-        <v>487.98200000000003</v>
+        <v>557.98199999999997</v>
       </c>
       <c r="D19">
-        <v>466.01100000000002</v>
+        <v>646.01099999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>1000</v>
       </c>
       <c r="C20">
-        <v>506.09039999999999</v>
+        <v>576.09400000000005</v>
       </c>
       <c r="D20">
-        <v>462.21800000000002</v>
+        <v>692.21799999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>10000</v>
       </c>
       <c r="C21">
-        <v>597.72820000000002</v>
+        <v>657.28200000000004</v>
       </c>
       <c r="D21">
-        <v>483.45400000000001</v>
+        <v>783.45399999999995</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>100000</v>
       </c>
       <c r="C22">
-        <v>690.43320000000006</v>
+        <v>790.43200000000002</v>
       </c>
       <c r="D22">
-        <v>487.25900000000001</v>
+        <v>917.25900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>1000000</v>
       </c>
       <c r="C23">
-        <v>822.83370000000002</v>
+        <v>872.33699999999999</v>
       </c>
       <c r="D23">
-        <v>491.43200000000002</v>
+        <v>1011.432</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\permi\source\repos\university\da\2_dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646B542-CDA9-499E-A315-F96FCAEA780F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DE002-4287-497D-8539-5AA9A6522A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{1FD290DD-753F-4FFC-B3B8-1A81E5A9B584}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>16.847999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D3">
-        <v>159.078</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>18.535</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D4">
-        <v>186.143</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>25.616</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="D5">
-        <v>247.488</v>
+        <v>4.4880000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>100000</v>
       </c>
       <c r="C6">
-        <v>43.213999999999999</v>
+        <v>46.213999999999999</v>
       </c>
       <c r="D6">
-        <v>326.721</v>
+        <v>63.720999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,10 +510,10 @@
         <v>1000000</v>
       </c>
       <c r="C7">
-        <v>71.015000000000001</v>
+        <v>971.01499999999999</v>
       </c>
       <c r="D7">
-        <v>376.96899999999999</v>
+        <v>1076.9690000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,10 +554,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>126.142</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D11">
-        <v>160.54499999999999</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +568,10 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>165.85900000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D12">
-        <v>198.40299999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,10 +582,10 @@
         <v>10000</v>
       </c>
       <c r="C13">
-        <v>264.42599999999999</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="D13">
-        <v>273.97300000000001</v>
+        <v>4.0730000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>100000</v>
       </c>
       <c r="C14">
-        <v>370.57</v>
+        <v>60.356999999999999</v>
       </c>
       <c r="D14">
-        <v>345.28899999999999</v>
+        <v>45.289000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>1000000</v>
       </c>
       <c r="C15">
-        <v>439.923</v>
+        <v>1239.923</v>
       </c>
       <c r="D15">
-        <v>419.65300000000002</v>
+        <v>990.65300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>200</v>
       </c>
       <c r="C19">
-        <v>557.98199999999997</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D19">
-        <v>646.01099999999997</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,10 +668,10 @@
         <v>1000</v>
       </c>
       <c r="C20">
-        <v>576.09400000000005</v>
+        <v>0.254</v>
       </c>
       <c r="D20">
-        <v>692.21799999999996</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>10000</v>
       </c>
       <c r="C21">
-        <v>657.28200000000004</v>
+        <v>3.282</v>
       </c>
       <c r="D21">
-        <v>783.45399999999995</v>
+        <v>3.6539999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>100000</v>
       </c>
       <c r="C22">
-        <v>790.43200000000002</v>
+        <v>68.432000000000002</v>
       </c>
       <c r="D22">
-        <v>917.25900000000001</v>
+        <v>59.259</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>1000000</v>
       </c>
       <c r="C23">
-        <v>872.33699999999999</v>
+        <v>1465.337</v>
       </c>
       <c r="D23">
-        <v>1011.432</v>
+        <v>1270.432</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\permi\source\repos\university\da\2_dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DE002-4287-497D-8539-5AA9A6522A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2124689-7371-4F41-BFA2-26190AADBF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{1FD290DD-753F-4FFC-B3B8-1A81E5A9B584}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>1.6E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>2.7E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>0.10100000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D4">
-        <v>0.186</v>
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,10 +482,10 @@
         <v>10000</v>
       </c>
       <c r="C5">
-        <v>2.9609999999999999</v>
+        <v>1.661</v>
       </c>
       <c r="D5">
-        <v>4.4880000000000004</v>
+        <v>3.1880000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>100000</v>
       </c>
       <c r="C6">
-        <v>46.213999999999999</v>
+        <v>26.213999999999999</v>
       </c>
       <c r="D6">
-        <v>63.720999999999997</v>
+        <v>47.720999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>971.01499999999999</v>
       </c>
       <c r="D7">
-        <v>1076.9690000000001</v>
+        <v>996.96900000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
